--- a/medicine/Pharmacie/Schering-Plough_Corporate/Schering-Plough_Corporate.xlsx
+++ b/medicine/Pharmacie/Schering-Plough_Corporate/Schering-Plough_Corporate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Schering-Plough était une entreprise pharmaceutique américaine, rachetée en 2009 par le laboratoire Merck &amp; Co., également américain.  
@@ -514,24 +526,97 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naissance
-1851 : Expansion de l’activité par le Dr Ernst Schering, apothicaire à Berlin.
+          <t>Naissance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1851 : Expansion de l’activité par le Dr Ernst Schering, apothicaire à Berlin.
 1929 : Schering fonde une filiale à New York.
-1934 : Acquisition de laboratoires et d’usines de production dans le New Jersey.
-Constitution du groupe
-1940/1945 : La filiale américaine se sépare de la maison mère.
+1934 : Acquisition de laboratoires et d’usines de production dans le New Jersey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Schering-Plough_Corporate</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schering-Plough_Corporate</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Constitution du groupe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1940/1945 : La filiale américaine se sépare de la maison mère.
 1952 : Schering Corporation devient définitivement une société américaine cotée en bourse.
-1971 : Fusion entre Schering et Plough.
-Internationalisation
-1957: acquisition de White Laboratories[1]
+1971 : Fusion entre Schering et Plough.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Schering-Plough_Corporate</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Schering-Plough_Corporate</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Internationalisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1957: acquisition de White Laboratories
 1980 : Acquisition de Kirby-Warrick.
 1982 : Acquisition de DNAX (recherche immunologique).
 1986 : Acquisition de Key Pharmaceuticals (cardiologie).
 1990 : Utilisation du nom de Schering-Plough par les filiales du groupe.
 1996 : Acquisition de CANJI (recherche en thérapie génétique).
 1997 : Acquisition de Mallinckrodt (activité vétérinaire).
-Le 7 septembre 2006, AkzoNobel décide de scinder ses activités pharmaceutiques dans une nouvelle entité Organon BioSciences, qui est cédée en mars 2007 à Schering-Plough pour 11 milliards d'euros soit 14,4 milliards de dollars[2].
-Le 10 mars 2009, Merck annonce officiellement sa fusion avec Schering-Plough, pour un montant de 41,5 milliards de dollars, qui va donner naissance au deuxième groupe pharmaceutique au monde, baptisé Merck[3],[4].
+Le 7 septembre 2006, AkzoNobel décide de scinder ses activités pharmaceutiques dans une nouvelle entité Organon BioSciences, qui est cédée en mars 2007 à Schering-Plough pour 11 milliards d'euros soit 14,4 milliards de dollars.
+Le 10 mars 2009, Merck annonce officiellement sa fusion avec Schering-Plough, pour un montant de 41,5 milliards de dollars, qui va donner naissance au deuxième groupe pharmaceutique au monde, baptisé Merck,.
 </t>
         </is>
       </c>
